--- a/input/static_data/cost/season_16/player_cost_GW10.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW10.xlsx
@@ -407,37 +407,37 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="10">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L13" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L19" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="20">
@@ -939,37 +939,37 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="24">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L24" t="n">
-        <v>4200000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="25">
@@ -1205,37 +1205,37 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="31">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L32" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="33">
@@ -1319,37 +1319,37 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L33" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="34">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="35">
@@ -1433,37 +1433,37 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L36" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="37">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="39">
@@ -1585,37 +1585,37 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="41">
@@ -1889,37 +1889,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="49">
@@ -1927,37 +1927,37 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L49" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="50">
@@ -2497,37 +2497,37 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L64" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="65">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L65" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L69" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="70">
@@ -2839,37 +2839,37 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L73" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="74">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L76" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3029,37 +3029,37 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="79">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="80">
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L80" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="81">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L97" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="98">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="105">
@@ -4055,37 +4055,37 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L105" t="n">
-        <v>6300000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="106">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L106" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L109" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="110">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L111" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="118">
@@ -4739,37 +4739,37 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="124">
@@ -4777,37 +4777,37 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="125">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L128" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="129">
@@ -5005,37 +5005,37 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="131">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L132" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="133">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L138" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="139">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="157">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="160">
@@ -6183,37 +6183,37 @@
         <v>160.0</v>
       </c>
       <c r="B161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="162">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="163">
@@ -6259,37 +6259,37 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L163" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="164">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L164" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="165">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L165" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="166">
@@ -6373,37 +6373,37 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="167">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L167" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L168" t="n">
-        <v>5600000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="169">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L176" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="177">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L178" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L179" t="n">
-        <v>5500000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="185">
@@ -7095,37 +7095,37 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="186">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="188">
@@ -7475,37 +7475,37 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="196">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="201">
@@ -7741,37 +7741,37 @@
         <v>201.0</v>
       </c>
       <c r="B202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L202" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="203">
@@ -7855,37 +7855,37 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="206">
@@ -8121,37 +8121,37 @@
         <v>211.0</v>
       </c>
       <c r="B212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L212" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="213">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L230" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="231">
@@ -8881,37 +8881,37 @@
         <v>231.0</v>
       </c>
       <c r="B232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="233">
@@ -8919,37 +8919,37 @@
         <v>232.0</v>
       </c>
       <c r="B233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="234">
@@ -9223,37 +9223,37 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L241" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="242">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="254">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L260" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L265" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L266" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="267">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L269" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="270">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L275" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="276">
@@ -11579,37 +11579,37 @@
         <v>302.0</v>
       </c>
       <c r="B303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L303" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="304">
@@ -11617,37 +11617,37 @@
         <v>303.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="305">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L305" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="306">
@@ -11693,37 +11693,37 @@
         <v>305.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="307">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L309" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="310">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="311">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L315" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="316">
@@ -12149,37 +12149,37 @@
         <v>317.0</v>
       </c>
       <c r="B318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="319">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L327" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="328">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="C331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="D331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="E331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="F331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="G331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="H331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="I331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="J331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="K331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
       <c r="L331" t="n">
-        <v>1.05E7</v>
+        <v>9900000.0</v>
       </c>
     </row>
     <row r="332">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L336" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="337">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="339">
@@ -13251,37 +13251,37 @@
         <v>346.0</v>
       </c>
       <c r="B347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="348">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L348" t="n">
-        <v>5200000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="349">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="351">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L351" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L353" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L356" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="357">
@@ -13631,37 +13631,37 @@
         <v>356.0</v>
       </c>
       <c r="B357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="358">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L362" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7400000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>8000000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14543,37 +14543,37 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L381" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="C387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="D387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="E387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="F387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="G387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="H387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="I387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="J387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="K387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="L387" t="n">
-        <v>9000000.0</v>
+        <v>9100000.0</v>
       </c>
     </row>
     <row r="388">
@@ -14999,37 +14999,37 @@
         <v>392.0</v>
       </c>
       <c r="B393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="394">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15113,37 +15113,37 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="397">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9300000.0</v>
+        <v>9000000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15341,37 +15341,37 @@
         <v>401.0</v>
       </c>
       <c r="B402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="403">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="404">
@@ -15417,37 +15417,37 @@
         <v>403.0</v>
       </c>
       <c r="B404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L404" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="405">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.08E7</v>
+        <v>1.07E7</v>
       </c>
     </row>
     <row r="408">
@@ -15683,37 +15683,37 @@
         <v>410.0</v>
       </c>
       <c r="B411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="412">
@@ -15759,37 +15759,37 @@
         <v>412.0</v>
       </c>
       <c r="B413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L413" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="414">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L414" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="415">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="416">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>7700000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="417">
@@ -16177,37 +16177,37 @@
         <v>423.0</v>
       </c>
       <c r="B424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L424" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="425">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="426">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.17E7</v>
+        <v>1.14E7</v>
       </c>
     </row>
     <row r="430">
@@ -16709,37 +16709,37 @@
         <v>437.0</v>
       </c>
       <c r="B438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="439">
@@ -17203,37 +17203,37 @@
         <v>450.0</v>
       </c>
       <c r="B451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L451" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="452">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L452" t="n">
-        <v>7000000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="453">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="454">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L461" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="462">
@@ -17697,37 +17697,37 @@
         <v>463.0</v>
       </c>
       <c r="B464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L464" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="465">
@@ -17963,37 +17963,37 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L471" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="472">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="487">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="491">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L496" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="497">
@@ -19103,37 +19103,37 @@
         <v>500.0</v>
       </c>
       <c r="B501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="502">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="509">
@@ -19407,37 +19407,37 @@
         <v>508.0</v>
       </c>
       <c r="B509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="510">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L513" t="n">
-        <v>6300000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="514">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5400000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="524">
@@ -20053,37 +20053,37 @@
         <v>525.0</v>
       </c>
       <c r="B526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="527">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L537" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="538">
@@ -20623,37 +20623,37 @@
         <v>540.0</v>
       </c>
       <c r="B541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="C541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="D541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="E541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="F541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="G541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="H541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="I541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="J541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="K541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="L541" t="n">
-        <v>7800000.0</v>
+        <v>7900000.0</v>
       </c>
     </row>
     <row r="542">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7800000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="550">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L552" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="553">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L557" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.08E7</v>
+        <v>1.04E7</v>
       </c>
     </row>
     <row r="559">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L559" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="560">
@@ -21915,37 +21915,37 @@
         <v>574.0</v>
       </c>
       <c r="B575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L575" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="576">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="C577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="D577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="E577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="F577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="G577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="H577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="I577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="J577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="K577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="L577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L578" t="n">
-        <v>8800000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="579">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6600000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.29E7</v>
+        <v>1.31E7</v>
       </c>
     </row>
     <row r="583">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="C585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="D585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="E585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="F585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="G585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="H585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="I585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="J585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="K585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="L585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6600000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L593" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="594">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L598" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="599">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="600">
@@ -22865,37 +22865,37 @@
         <v>599.0</v>
       </c>
       <c r="B600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L600" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="601">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L606" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.12E7</v>
+        <v>1.07E7</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="612">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L620" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="621">
